--- a/classifier_testing/hyperparameter_testing.xlsx
+++ b/classifier_testing/hyperparameter_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/claudiac_wustl_edu/Documents/social_behavior_classifier/classifier_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128D8301-8D80-424B-9943-782E7B699DA8}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AE9E7F-20C4-4943-BE3A-F2E9E0FADC0D}"/>
   <bookViews>
     <workbookView xWindow="58220" yWindow="5140" windowWidth="28040" windowHeight="17620" xr2:uid="{10D74CEF-42BD-AF47-8295-6C0289519988}"/>
   </bookViews>
@@ -156,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,7 +482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,9 +589,6 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>128</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">

--- a/classifier_testing/hyperparameter_testing.xlsx
+++ b/classifier_testing/hyperparameter_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/claudiac_wustl_edu/Documents/social_behavior_classifier/classifier_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AE9E7F-20C4-4943-BE3A-F2E9E0FADC0D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF3C8DD-7511-2243-BDF4-DE4750E9F356}"/>
   <bookViews>
     <workbookView xWindow="58220" yWindow="5140" windowWidth="28040" windowHeight="17620" xr2:uid="{10D74CEF-42BD-AF47-8295-6C0289519988}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,6 +589,9 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">

--- a/classifier_testing/hyperparameter_testing.xlsx
+++ b/classifier_testing/hyperparameter_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/claudiac_wustl_edu/Documents/social_behavior_classifier/classifier_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF3C8DD-7511-2243-BDF4-DE4750E9F356}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{21D14DD2-1A21-644C-AA0C-65C9BAD7573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F9E5B48-EF43-8545-853A-4BEA64427A46}"/>
   <bookViews>
-    <workbookView xWindow="58220" yWindow="5140" windowWidth="28040" windowHeight="17620" xr2:uid="{10D74CEF-42BD-AF47-8295-6C0289519988}"/>
+    <workbookView xWindow="66400" yWindow="2580" windowWidth="28040" windowHeight="17620" xr2:uid="{10D74CEF-42BD-AF47-8295-6C0289519988}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -542,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -562,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>32</v>
@@ -575,22 +575,10 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>64</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
